--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3972" yWindow="996" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -102,8 +102,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF98FB98"/>
       </patternFill>
     </fill>
     <fill>
@@ -237,9 +237,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,22 +596,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J2:J10"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15.6640625" customWidth="1" min="2" max="2"/>
-    <col width="14.6640625" customWidth="1" min="3" max="3"/>
-    <col width="14.33203125" customWidth="1" min="4" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14.33203125" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="11.6640625" customWidth="1" min="1" max="1"/>
+    <col width="6.109375" customWidth="1" min="2" max="2"/>
+    <col width="7.5546875" customWidth="1" min="3" max="3"/>
+    <col width="6.44140625" customWidth="1" min="4" max="4"/>
+    <col width="8.44140625" customWidth="1" min="5" max="5"/>
+    <col width="7.109375" customWidth="1" min="6" max="6"/>
+    <col width="6.33203125" customWidth="1" min="7" max="7"/>
+    <col width="6.77734375" customWidth="1" min="8" max="8"/>
     <col width="2.5546875" customWidth="1" min="9" max="9"/>
+    <col width="3.33203125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,9 +629,49 @@
       <c r="F1" s="22" t="n"/>
       <c r="G1" s="22" t="n"/>
       <c r="H1" s="23" t="n"/>
-      <c r="J1" s="19" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>שמות:</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ב</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ג</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ד</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ה</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ו</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ש</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>כמות משמרות:</t>
         </is>
       </c>
     </row>
@@ -674,10 +716,53 @@
           <t>שבת 16.3</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J2" s="19" t="inlineStr">
         <is>
           <t>אמור</t>
         </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>זיו</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -698,6 +783,49 @@
           <t>אור</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -717,6 +845,49 @@
           <t>עמית</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="inlineStr">
@@ -736,6 +907,39 @@
           <t>רוני</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">אמור </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="inlineStr">
@@ -755,6 +959,49 @@
           <t>יניב</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="inlineStr">
@@ -774,6 +1021,39 @@
           <t>זיו</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>יניב</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -792,6 +1072,39 @@
         <is>
           <t>אוראל</t>
         </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>עמית</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1770" yWindow="1770" windowWidth="22155" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -102,18 +102,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor rgb="FF98FB98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0098FB98"/>
         <bgColor rgb="0098FB98"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -161,15 +155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -194,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -238,8 +223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,7 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,39 +579,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11.6640625" customWidth="1" min="1" max="1"/>
-    <col width="6.109375" customWidth="1" min="2" max="2"/>
-    <col width="7.5546875" customWidth="1" min="3" max="3"/>
-    <col width="6.44140625" customWidth="1" min="4" max="4"/>
-    <col width="8.44140625" customWidth="1" min="5" max="5"/>
-    <col width="7.109375" customWidth="1" min="6" max="6"/>
-    <col width="6.33203125" customWidth="1" min="7" max="7"/>
-    <col width="6.77734375" customWidth="1" min="8" max="8"/>
-    <col width="2.5546875" customWidth="1" min="9" max="9"/>
-    <col width="3.33203125" customWidth="1" min="11" max="11"/>
+    <col width="13.5703125" customWidth="1" min="1" max="1"/>
+    <col width="8.7109375" customWidth="1" min="2" max="2"/>
+    <col width="6.85546875" customWidth="1" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="5.85546875" customWidth="1" min="7" max="7"/>
+    <col width="6.7109375" customWidth="1" min="8" max="8"/>
+    <col width="2.5703125" customWidth="1" min="9" max="9"/>
+    <col width="3.28515625" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>סידור עבודה צוות עדי</t>
         </is>
       </c>
-      <c r="B1" s="22" t="n"/>
-      <c r="C1" s="22" t="n"/>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="22" t="n"/>
-      <c r="G1" s="22" t="n"/>
-      <c r="H1" s="23" t="n"/>
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="20" t="n"/>
+      <c r="E1" s="20" t="n"/>
+      <c r="F1" s="20" t="n"/>
+      <c r="G1" s="20" t="n"/>
+      <c r="H1" s="21" t="n"/>
       <c r="J1" s="18" t="inlineStr">
         <is>
           <t>שמות:</t>
@@ -683,101 +666,101 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ראשון 10.3</t>
+          <t xml:space="preserve">ראשון </t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>שני 11.3</t>
+          <t xml:space="preserve">שני </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>שלישי 12.3</t>
+          <t xml:space="preserve">שלישי </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>רביעי 13.3</t>
+          <t xml:space="preserve">רביעי </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>חמישי 14.3</t>
+          <t xml:space="preserve">חמישי </t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>שישי 15.3</t>
+          <t xml:space="preserve">שישי </t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>שבת 16.3</t>
-        </is>
-      </c>
-      <c r="J2" s="19" t="inlineStr">
+          <t xml:space="preserve">שבת </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>אמור</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>זיו</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>b.c</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="inlineStr">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">עמדה כניסה </t>
         </is>
       </c>
-      <c r="B3" s="22" t="n"/>
-      <c r="C3" s="22" t="n"/>
-      <c r="D3" s="22" t="n"/>
-      <c r="E3" s="22" t="n"/>
-      <c r="F3" s="22" t="n"/>
-      <c r="G3" s="22" t="n"/>
-      <c r="H3" s="23" t="n"/>
+      <c r="B3" s="20" t="n"/>
+      <c r="C3" s="20" t="n"/>
+      <c r="D3" s="20" t="n"/>
+      <c r="E3" s="20" t="n"/>
+      <c r="F3" s="20" t="n"/>
+      <c r="G3" s="20" t="n"/>
+      <c r="H3" s="21" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>אור</t>
@@ -790,41 +773,41 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>b.c</t>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -847,42 +830,42 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>עמית</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>night</t>
         </is>
       </c>
       <c r="T4" t="n">
@@ -909,32 +892,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">אמור </t>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>night</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>a.b</t>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>morning</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T5" t="n">
@@ -961,42 +949,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>יניב</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T6" t="n">
@@ -1004,18 +982,18 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="inlineStr">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>עמדה אחורית</t>
         </is>
       </c>
-      <c r="B7" s="22" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="22" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="H7" s="23" t="n"/>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="20" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="E7" s="20" t="n"/>
+      <c r="F7" s="20" t="n"/>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="21" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>זיו</t>
@@ -1023,36 +1001,46 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>יניב</t>
+          <t>זיו</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1075,36 +1063,46 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>עמית</t>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1120,10 +1118,14 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="26" t="n"/>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>תגבור</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="A10" s="19" t="inlineStr">
         <is>
           <t>22:00-6:00</t>
         </is>
@@ -1137,18 +1139,18 @@
       <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>הערות</t>
         </is>
       </c>
-      <c r="B11" s="22" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n"/>
-      <c r="F11" s="22" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="H11" s="23" t="n"/>
+      <c r="B11" s="20" t="n"/>
+      <c r="C11" s="20" t="n"/>
+      <c r="D11" s="20" t="n"/>
+      <c r="E11" s="20" t="n"/>
+      <c r="F11" s="20" t="n"/>
+      <c r="G11" s="20" t="n"/>
+      <c r="H11" s="21" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>
@@ -1180,7 +1182,6 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
-    <row r="16"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:H7"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -579,13 +579,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5703125" customWidth="1" min="1" max="1"/>
     <col width="8.7109375" customWidth="1" min="2" max="2"/>
@@ -617,46 +617,6 @@
           <t>שמות:</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>א</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ב</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>ג</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ד</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>ה</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>ו</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>ש</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>כמות משמרות:</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -703,49 +663,6 @@
         <is>
           <t>אמור</t>
         </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>אמור</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -766,49 +683,6 @@
           <t>אור</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -828,49 +702,6 @@
           <t>עמית</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>עמית</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="inlineStr">
@@ -890,44 +721,6 @@
           <t>רוני</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="inlineStr">
@@ -947,39 +740,6 @@
           <t>יניב</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>יניב</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="inlineStr">
@@ -999,49 +759,6 @@
           <t>זיו</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>noon</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -1061,49 +778,6 @@
           <t>אוראל</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>אוראל</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="inlineStr">
@@ -1118,11 +792,7 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="24" t="inlineStr">
-        <is>
-          <t>תגבור</t>
-        </is>
-      </c>
+      <c r="J9" s="24" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="19" t="inlineStr">
@@ -1182,6 +852,10 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
+    <row r="15">
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:H7"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -579,13 +579,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.5703125" customWidth="1" min="1" max="1"/>
     <col width="8.7109375" customWidth="1" min="2" max="2"/>
@@ -617,6 +617,46 @@
           <t>שמות:</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ב</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ג</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ד</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ה</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ו</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ש</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>כמות משמרות:</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -661,8 +701,46 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>אמור</t>
-        </is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>morning.night</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>morning.night</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -683,6 +761,49 @@
           <t>אור</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -699,8 +820,51 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>עמית</t>
-        </is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -718,8 +882,51 @@
       <c r="H5" s="7" t="n"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>רוני</t>
-        </is>
+          <t>עמית</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>עמית</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -740,6 +947,39 @@
           <t>יניב</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>יניב</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="inlineStr">
@@ -759,6 +999,49 @@
           <t>זיו</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>זיו</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -778,6 +1061,49 @@
           <t>אוראל</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="inlineStr">
@@ -792,7 +1118,11 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="24" t="n"/>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>תגבור</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="inlineStr">
@@ -807,6 +1137,7 @@
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="5" t="n"/>
+      <c r="J10" s="24" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="22" t="inlineStr">
@@ -852,10 +1183,6 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
     </row>
-    <row r="15">
-      <c r="J15" t="inlineStr"/>
-    </row>
-    <row r="16"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:H7"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1770" yWindow="1770" windowWidth="22155" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -102,8 +102,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF98FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF98FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0098FB98"/>
         <bgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -223,6 +241,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,7 +254,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +603,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -600,23 +621,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>סידור עבודה צוות עדי</t>
         </is>
       </c>
-      <c r="B1" s="20" t="n"/>
-      <c r="C1" s="20" t="n"/>
-      <c r="D1" s="20" t="n"/>
-      <c r="E1" s="20" t="n"/>
-      <c r="F1" s="20" t="n"/>
-      <c r="G1" s="20" t="n"/>
-      <c r="H1" s="21" t="n"/>
+      <c r="B1" s="22" t="n"/>
+      <c r="C1" s="22" t="n"/>
+      <c r="D1" s="22" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="22" t="n"/>
+      <c r="H1" s="23" t="n"/>
       <c r="J1" s="18" t="inlineStr">
         <is>
           <t>שמות:</t>
         </is>
       </c>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>הערות:</t>
+        </is>
+      </c>
       <c r="M1" t="inlineStr">
         <is>
           <t>א</t>
@@ -655,6 +681,11 @@
       <c r="T1" t="inlineStr">
         <is>
           <t>כמות משמרות:</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>AMOUNT:</t>
         </is>
       </c>
     </row>
@@ -699,71 +730,69 @@
           <t xml:space="preserve">שבת </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>רוני</t>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>אור</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T2" t="n">
         <v>6</v>
       </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">עמדה כניסה </t>
         </is>
       </c>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n"/>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="20" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="n"/>
-      <c r="H3" s="21" t="n"/>
+      <c r="B3" s="22" t="n"/>
+      <c r="C3" s="22" t="n"/>
+      <c r="D3" s="22" t="n"/>
+      <c r="E3" s="22" t="n"/>
+      <c r="F3" s="22" t="n"/>
+      <c r="G3" s="22" t="n"/>
+      <c r="H3" s="23" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>אור</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -773,36 +802,34 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>noon.night</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="T3" t="n">
         <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -823,11 +850,6 @@
           <t>אמור</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>אמור</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>morning.noon.night</t>
@@ -865,6 +887,9 @@
       </c>
       <c r="T4" t="n">
         <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -885,11 +910,6 @@
           <t>עמית</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>עמית</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>morning.noon.night</t>
@@ -927,6 +947,9 @@
       </c>
       <c r="T5" t="n">
         <v>6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -947,11 +970,6 @@
           <t>יניב</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>יניב</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>morning</t>
@@ -980,26 +998,24 @@
       <c r="T6" t="n">
         <v>6</v>
       </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>עמדה אחורית</t>
         </is>
       </c>
-      <c r="B7" s="20" t="n"/>
-      <c r="C7" s="20" t="n"/>
-      <c r="D7" s="20" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="20" t="n"/>
-      <c r="G7" s="20" t="n"/>
-      <c r="H7" s="21" t="n"/>
+      <c r="B7" s="22" t="n"/>
+      <c r="C7" s="22" t="n"/>
+      <c r="D7" s="22" t="n"/>
+      <c r="E7" s="22" t="n"/>
+      <c r="F7" s="22" t="n"/>
+      <c r="G7" s="22" t="n"/>
+      <c r="H7" s="23" t="n"/>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>זיו</t>
         </is>
@@ -1041,6 +1057,9 @@
       </c>
       <c r="T7" t="n">
         <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1061,11 +1080,6 @@
           <t>אוראל</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>אוראל</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>morning.noon.night</t>
@@ -1103,6 +1117,9 @@
       </c>
       <c r="T8" t="n">
         <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1118,14 +1135,14 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="24" t="inlineStr">
+      <c r="J9" s="26" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="inlineStr">
+      <c r="A10" s="21" t="inlineStr">
         <is>
           <t>22:00-6:00</t>
         </is>
@@ -1137,21 +1154,21 @@
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="5" t="n"/>
-      <c r="J10" s="24" t="n"/>
+      <c r="J10" s="19" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="inlineStr">
+      <c r="A11" s="24" t="inlineStr">
         <is>
           <t>הערות</t>
         </is>
       </c>
-      <c r="B11" s="20" t="n"/>
-      <c r="C11" s="20" t="n"/>
-      <c r="D11" s="20" t="n"/>
-      <c r="E11" s="20" t="n"/>
-      <c r="F11" s="20" t="n"/>
-      <c r="G11" s="20" t="n"/>
-      <c r="H11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
+      <c r="C11" s="22" t="n"/>
+      <c r="D11" s="22" t="n"/>
+      <c r="E11" s="22" t="n"/>
+      <c r="F11" s="22" t="n"/>
+      <c r="G11" s="22" t="n"/>
+      <c r="H11" s="23" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -108,8 +108,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor rgb="FF98FB98"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -602,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -617,7 +617,15 @@
     <col width="5.85546875" customWidth="1" min="7" max="7"/>
     <col width="6.7109375" customWidth="1" min="8" max="8"/>
     <col width="2.5703125" customWidth="1" min="9" max="9"/>
-    <col width="3.28515625" customWidth="1" min="11" max="11"/>
+    <col width="1.7109375" customWidth="1" min="11" max="11"/>
+    <col width="9.28515625" customWidth="1" min="12" max="12"/>
+    <col width="15.42578125" customWidth="1" min="13" max="13"/>
+    <col width="16.42578125" customWidth="1" min="14" max="14"/>
+    <col width="20.7109375" customWidth="1" min="15" max="15"/>
+    <col width="17.42578125" customWidth="1" min="16" max="16"/>
+    <col width="23.5703125" customWidth="1" min="17" max="17"/>
+    <col width="16.85546875" customWidth="1" min="18" max="18"/>
+    <col width="18.28515625" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -730,51 +738,51 @@
           <t xml:space="preserve">שבת </t>
         </is>
       </c>
-      <c r="J2" s="26" t="inlineStr">
-        <is>
-          <t>אור</t>
+      <c r="J2" s="19" t="inlineStr">
+        <is>
+          <t>זיו</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>noon.night</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="T2" t="n">
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -792,37 +800,37 @@
       <c r="H3" s="23" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>יניב</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>night</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -847,7 +855,7 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -857,39 +865,39 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -910,32 +918,27 @@
           <t>עמית</t>
         </is>
       </c>
+      <c r="L5" s="27" t="inlineStr">
+        <is>
+          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>morning</t>
         </is>
@@ -949,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -967,32 +970,32 @@
       <c r="H6" s="5" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>יניב</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>morning.night</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="T6" t="n">
@@ -1017,49 +1020,19 @@
       <c r="H7" s="23" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>noon</t>
+          <t>אוראל</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>morning</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
         </is>
       </c>
       <c r="T7" t="n">
         <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1077,7 +1050,7 @@
       <c r="H8" s="7" t="n"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1087,7 +1060,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1097,7 +1070,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1119,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1127,6 @@
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="5" t="n"/>
-      <c r="J10" s="19" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="24" t="inlineStr">

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -740,42 +740,42 @@
       </c>
       <c r="J2" s="19" t="inlineStr">
         <is>
-          <t>זיו</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>noon.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="T2" t="n">
@@ -800,44 +800,49 @@
       <c r="H3" s="23" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>יניב</t>
+          <t>זיו שהינו</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>b</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -855,49 +860,44 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>יניב שטיינר</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>c</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="T4" t="n">
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -915,44 +915,49 @@
       <c r="H5" s="7" t="n"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>עמית</t>
-        </is>
-      </c>
-      <c r="L5" s="27" t="inlineStr">
-        <is>
-          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>a.b</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="T5" t="n">
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -970,39 +975,44 @@
       <c r="H6" s="5" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>אמור</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>עמית בלסן</t>
+        </is>
+      </c>
+      <c r="L6" s="27" t="inlineStr">
+        <is>
+          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>a.b</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>a</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>c</t>
         </is>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1020,19 +1030,39 @@
       <c r="H7" s="23" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>אוראל</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>morning</t>
+          <t>אמור משה</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>a.b</t>
         </is>
       </c>
       <c r="T7" t="n">
         <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1050,49 +1080,19 @@
       <c r="H8" s="7" t="n"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>אוראל</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
+          <t>a</t>
         </is>
       </c>
       <c r="T8" t="n">
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -800,7 +800,7 @@
       <c r="H3" s="23" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>זיו שהינו</t>
+          <t>זיו</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -860,7 +860,7 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>יניב שטיינר</t>
+          <t>יניב</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
       <c r="H6" s="5" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>עמית בלסן</t>
+          <t>עמית</t>
         </is>
       </c>
       <c r="L6" s="27" t="inlineStr">
@@ -1030,7 +1030,7 @@
       <c r="H7" s="23" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>אמור משה</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -98,18 +98,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
-        <bgColor rgb="FF98FB98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -197,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -241,8 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,8 +240,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,51 +588,43 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="13.5703125" customWidth="1" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" min="2" max="2"/>
-    <col width="6.85546875" customWidth="1" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" min="4" max="4"/>
+    <col width="13.5546875" customWidth="1" min="1" max="1"/>
+    <col width="8.6640625" customWidth="1" min="2" max="2"/>
+    <col width="6.88671875" customWidth="1" min="3" max="3"/>
+    <col width="9.109375" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="5.85546875" customWidth="1" min="7" max="7"/>
-    <col width="6.7109375" customWidth="1" min="8" max="8"/>
-    <col width="2.5703125" customWidth="1" min="9" max="9"/>
-    <col width="1.7109375" customWidth="1" min="11" max="11"/>
-    <col width="9.28515625" customWidth="1" min="12" max="12"/>
-    <col width="15.42578125" customWidth="1" min="13" max="13"/>
-    <col width="16.42578125" customWidth="1" min="14" max="14"/>
-    <col width="20.7109375" customWidth="1" min="15" max="15"/>
-    <col width="17.42578125" customWidth="1" min="16" max="16"/>
-    <col width="23.5703125" customWidth="1" min="17" max="17"/>
-    <col width="16.85546875" customWidth="1" min="18" max="18"/>
-    <col width="18.28515625" customWidth="1" min="19" max="19"/>
+    <col width="5.88671875" customWidth="1" min="7" max="7"/>
+    <col width="6.6640625" customWidth="1" min="8" max="8"/>
+    <col width="2.5546875" customWidth="1" min="9" max="9"/>
+    <col width="3.33203125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>סידור עבודה צוות עדי</t>
         </is>
       </c>
-      <c r="B1" s="22" t="n"/>
-      <c r="C1" s="22" t="n"/>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="22" t="n"/>
-      <c r="G1" s="22" t="n"/>
-      <c r="H1" s="23" t="n"/>
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="20" t="n"/>
+      <c r="E1" s="20" t="n"/>
+      <c r="F1" s="20" t="n"/>
+      <c r="G1" s="20" t="n"/>
+      <c r="H1" s="21" t="n"/>
       <c r="J1" s="18" t="inlineStr">
         <is>
           <t>שמות:</t>
         </is>
       </c>
-      <c r="L1" s="27" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>הערות:</t>
         </is>
@@ -738,84 +716,64 @@
           <t xml:space="preserve">שבת </t>
         </is>
       </c>
-      <c r="J2" s="19" t="inlineStr">
-        <is>
-          <t>אור</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>יניב שטיינר</t>
+        </is>
+      </c>
+      <c r="L2" s="25" t="inlineStr">
+        <is>
+          <t>תקופת מבחנים ובשבת נמצא בשבת חתן</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="T2" t="n">
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="inlineStr">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">עמדה כניסה </t>
         </is>
       </c>
-      <c r="B3" s="22" t="n"/>
-      <c r="C3" s="22" t="n"/>
-      <c r="D3" s="22" t="n"/>
-      <c r="E3" s="22" t="n"/>
-      <c r="F3" s="22" t="n"/>
-      <c r="G3" s="22" t="n"/>
-      <c r="H3" s="23" t="n"/>
+      <c r="B3" s="20" t="n"/>
+      <c r="C3" s="20" t="n"/>
+      <c r="D3" s="20" t="n"/>
+      <c r="E3" s="20" t="n"/>
+      <c r="F3" s="20" t="n"/>
+      <c r="G3" s="20" t="n"/>
+      <c r="H3" s="21" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>b</t>
+          <t xml:space="preserve">אוראל </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -830,19 +788,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -860,41 +818,51 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>יניב</t>
+          <t>אמור טלבי</t>
+        </is>
+      </c>
+      <c r="L4" s="25" t="inlineStr">
+        <is>
+          <t>מי שלא מוחא כפיים..</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
@@ -915,49 +883,29 @@
       <c r="H5" s="7" t="n"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>עמית בלסן</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>a.b</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="T5" t="n">
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +923,22 @@
       <c r="H6" s="5" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>עמית</t>
-        </is>
-      </c>
-      <c r="L6" s="27" t="inlineStr">
-        <is>
-          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1000,52 +948,62 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="inlineStr">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>עמדה אחורית</t>
         </is>
       </c>
-      <c r="B7" s="22" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="22" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="H7" s="23" t="n"/>
+      <c r="B7" s="20" t="n"/>
+      <c r="C7" s="20" t="n"/>
+      <c r="D7" s="20" t="n"/>
+      <c r="E7" s="20" t="n"/>
+      <c r="F7" s="20" t="n"/>
+      <c r="G7" s="20" t="n"/>
+      <c r="H7" s="21" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>אמור</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t xml:space="preserve">זיו שהינו </t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>b</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1062,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1080,10 +1038,35 @@
       <c r="H8" s="7" t="n"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -1092,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1108,14 +1091,14 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="26" t="inlineStr">
+      <c r="J9" s="24" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="A10" s="19" t="inlineStr">
         <is>
           <t>22:00-6:00</t>
         </is>
@@ -1129,18 +1112,18 @@
       <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>הערות</t>
         </is>
       </c>
-      <c r="B11" s="22" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n"/>
-      <c r="F11" s="22" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="H11" s="23" t="n"/>
+      <c r="B11" s="20" t="n"/>
+      <c r="C11" s="20" t="n"/>
+      <c r="D11" s="20" t="n"/>
+      <c r="E11" s="20" t="n"/>
+      <c r="F11" s="20" t="n"/>
+      <c r="G11" s="20" t="n"/>
+      <c r="H11" s="21" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4380" yWindow="4680" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -97,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -240,8 +246,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,22 +598,30 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.5546875" customWidth="1" min="1" max="1"/>
-    <col width="8.6640625" customWidth="1" min="2" max="2"/>
-    <col width="6.88671875" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" customWidth="1" min="4" max="4"/>
+    <col width="13.5703125" customWidth="1" min="1" max="1"/>
+    <col width="8.7109375" customWidth="1" min="2" max="2"/>
+    <col width="6.85546875" customWidth="1" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="5.88671875" customWidth="1" min="7" max="7"/>
-    <col width="6.6640625" customWidth="1" min="8" max="8"/>
-    <col width="2.5546875" customWidth="1" min="9" max="9"/>
-    <col width="3.33203125" customWidth="1" min="11" max="11"/>
+    <col width="5.85546875" customWidth="1" min="7" max="7"/>
+    <col width="6.7109375" customWidth="1" min="8" max="8"/>
+    <col width="2.5703125" customWidth="1" min="9" max="9"/>
+    <col width="1.42578125" customWidth="1" min="11" max="11"/>
+    <col width="4.28515625" customWidth="1" min="12" max="12"/>
+    <col width="5.7109375" customWidth="1" min="13" max="13"/>
+    <col width="5.28515625" customWidth="1" min="14" max="14"/>
+    <col width="5.85546875" customWidth="1" min="15" max="15"/>
+    <col width="4.85546875" customWidth="1" min="16" max="16"/>
+    <col width="4.7109375" customWidth="1" min="17" max="17"/>
+    <col width="4.5703125" customWidth="1" min="18" max="19"/>
+    <col width="11.42578125" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,54 +642,54 @@
           <t>שמות:</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>הערות:</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>א</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>ב</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="25" t="inlineStr">
         <is>
           <t>ג</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="25" t="inlineStr">
         <is>
           <t>ד</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="25" t="inlineStr">
         <is>
           <t>ה</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="25" t="inlineStr">
         <is>
           <t>ו</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="25" t="inlineStr">
         <is>
           <t>ש</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>כמות משמרות:</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>AMOUNT:</t>
+      <c r="T1" s="25" t="inlineStr">
+        <is>
+          <t>מקס משמרות</t>
+        </is>
+      </c>
+      <c r="U1" s="25" t="inlineStr">
+        <is>
+          <t>כמות</t>
         </is>
       </c>
     </row>
@@ -721,7 +739,7 @@
           <t>יניב שטיינר</t>
         </is>
       </c>
-      <c r="L2" s="25" t="inlineStr">
+      <c r="L2" s="27" t="inlineStr">
         <is>
           <t>תקופת מבחנים ובשבת נמצא בשבת חתן</t>
         </is>
@@ -755,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +839,7 @@
           <t>אמור טלבי</t>
         </is>
       </c>
-      <c r="L4" s="25" t="inlineStr">
+      <c r="L4" s="27" t="inlineStr">
         <is>
           <t>מי שלא מוחא כפיים..</t>
         </is>
@@ -865,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -965,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1091,7 +1109,7 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="24" t="inlineStr">
+      <c r="J9" s="26" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -112,12 +112,6 @@
         <bgColor rgb="0098FB98"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -191,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -251,7 +245,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,47 +727,7 @@
           <t xml:space="preserve">שבת </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>יניב שטיינר</t>
-        </is>
-      </c>
-      <c r="L2" s="27" t="inlineStr">
-        <is>
-          <t>תקופת מבחנים ובשבת נמצא בשבת חתן</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="J2" s="26" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="inlineStr">
@@ -789,37 +742,6 @@
       <c r="F3" s="20" t="n"/>
       <c r="G3" s="20" t="n"/>
       <c r="H3" s="21" t="n"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">אוראל </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -834,57 +756,6 @@
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="5" t="n"/>
       <c r="H4" s="7" t="n"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>אמור טלבי</t>
-        </is>
-      </c>
-      <c r="L4" s="27" t="inlineStr">
-        <is>
-          <t>מי שלא מוחא כפיים..</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="inlineStr">
@@ -899,32 +770,6 @@
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="7" t="n"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>עמית בלסן</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="inlineStr">
@@ -939,52 +784,6 @@
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="5" t="n"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="inlineStr">
@@ -999,47 +798,6 @@
       <c r="F7" s="20" t="n"/>
       <c r="G7" s="20" t="n"/>
       <c r="H7" s="21" t="n"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">זיו שהינו </t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -1054,47 +812,6 @@
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="inlineStr">
@@ -1109,7 +826,7 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="26" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4380" yWindow="4680" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -110,6 +110,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0098FB98"/>
         <bgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -222,13 +228,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,11 +244,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,29 +593,29 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="13.5703125" customWidth="1" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" min="2" max="2"/>
-    <col width="6.85546875" customWidth="1" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" min="4" max="4"/>
+    <col width="13.5546875" customWidth="1" min="1" max="1"/>
+    <col width="8.6640625" customWidth="1" min="2" max="2"/>
+    <col width="6.88671875" customWidth="1" min="3" max="3"/>
+    <col width="9.109375" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="5.85546875" customWidth="1" min="7" max="7"/>
-    <col width="6.7109375" customWidth="1" min="8" max="8"/>
-    <col width="2.5703125" customWidth="1" min="9" max="9"/>
-    <col width="1.42578125" customWidth="1" min="11" max="11"/>
-    <col width="4.28515625" customWidth="1" min="12" max="12"/>
-    <col width="5.7109375" customWidth="1" min="13" max="13"/>
-    <col width="5.28515625" customWidth="1" min="14" max="14"/>
-    <col width="5.85546875" customWidth="1" min="15" max="15"/>
-    <col width="4.85546875" customWidth="1" min="16" max="16"/>
-    <col width="4.7109375" customWidth="1" min="17" max="17"/>
-    <col width="4.5703125" customWidth="1" min="18" max="19"/>
-    <col width="11.42578125" customWidth="1" min="20" max="20"/>
+    <col width="5.88671875" customWidth="1" min="7" max="7"/>
+    <col width="6.6640625" customWidth="1" min="8" max="8"/>
+    <col width="2.5546875" customWidth="1" min="9" max="9"/>
+    <col width="1.44140625" customWidth="1" min="11" max="11"/>
+    <col width="4.33203125" customWidth="1" min="12" max="12"/>
+    <col width="5.6640625" customWidth="1" min="13" max="13"/>
+    <col width="5.33203125" customWidth="1" min="14" max="14"/>
+    <col width="5.88671875" customWidth="1" min="15" max="15"/>
+    <col width="4.88671875" customWidth="1" min="16" max="16"/>
+    <col width="4.6640625" customWidth="1" min="17" max="17"/>
+    <col width="4.5546875" customWidth="1" min="18" max="19"/>
+    <col width="11.44140625" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,57 +631,57 @@
       <c r="F1" s="20" t="n"/>
       <c r="G1" s="20" t="n"/>
       <c r="H1" s="21" t="n"/>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>שמות:</t>
         </is>
       </c>
-      <c r="L1" s="24" t="inlineStr">
+      <c r="L1" s="17" t="inlineStr">
         <is>
           <t>הערות:</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="18" t="inlineStr">
         <is>
           <t>א</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="18" t="inlineStr">
         <is>
           <t>ב</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="18" t="inlineStr">
         <is>
           <t>ג</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="18" t="inlineStr">
         <is>
           <t>ד</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="18" t="inlineStr">
         <is>
           <t>ה</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="18" t="inlineStr">
         <is>
           <t>ו</t>
         </is>
       </c>
-      <c r="S1" s="25" t="inlineStr">
+      <c r="S1" s="18" t="inlineStr">
         <is>
           <t>ש</t>
         </is>
       </c>
-      <c r="T1" s="25" t="inlineStr">
+      <c r="T1" s="18" t="inlineStr">
         <is>
           <t>מקס משמרות</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="18" t="inlineStr">
         <is>
           <t>כמות</t>
         </is>
@@ -727,7 +728,42 @@
           <t xml:space="preserve">שבת </t>
         </is>
       </c>
-      <c r="J2" s="26" t="n"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Worker 1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="inlineStr">
@@ -742,11 +778,57 @@
       <c r="F3" s="20" t="n"/>
       <c r="G3" s="20" t="n"/>
       <c r="H3" s="21" t="n"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Worker 2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>6:00-14:00</t>
+          <t>7:00-15:00</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -756,11 +838,57 @@
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="5" t="n"/>
       <c r="H4" s="7" t="n"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Worker 3</t>
+        </is>
+      </c>
+      <c r="L4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">מבחנים </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="inlineStr">
         <is>
-          <t>14:00-22:00</t>
+          <t>15:00-23:00</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -770,11 +898,57 @@
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="7" t="n"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Worker 4</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="inlineStr">
         <is>
-          <t>22:00-6:00</t>
+          <t>23:00-7:00</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -784,6 +958,42 @@
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="5" t="n"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Worker 7</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="inlineStr">
@@ -798,11 +1008,52 @@
       <c r="F7" s="20" t="n"/>
       <c r="G7" s="20" t="n"/>
       <c r="H7" s="21" t="n"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Worker 6</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t>6:00-14:00</t>
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>7:00-15:00</t>
         </is>
       </c>
       <c r="B8" s="5" t="n"/>
@@ -812,11 +1063,57 @@
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="7" t="n"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Worker 5</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="inlineStr">
         <is>
-          <t>14:00-22:00</t>
+          <t>15:00-23:00</t>
         </is>
       </c>
       <c r="B9" s="6" t="n"/>
@@ -826,16 +1123,16 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="24" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>22:00-6:00</t>
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>23:00-7:00</t>
         </is>
       </c>
       <c r="B10" s="5" t="n"/>

--- a/automate/תבנית סידור.xlsx
+++ b/automate/תבנית סידור.xlsx
@@ -621,7 +621,7 @@
     <row r="1">
       <c r="A1" s="23" t="inlineStr">
         <is>
-          <t>סידור עבודה צוות עדי</t>
+          <t>s</t>
         </is>
       </c>
       <c r="B1" s="20" t="n"/>
@@ -730,17 +730,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Worker 1</t>
+          <t>אוראל</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>b.c</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -762,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">עמדה כניסה </t>
+          <t>עמדה 1</t>
         </is>
       </c>
       <c r="B3" s="20" t="n"/>
@@ -780,34 +790,34 @@
       <c r="H3" s="21" t="n"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Worker 2</t>
+          <t>זיו שהינו</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>f</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>a.b.c</t>
@@ -815,14 +825,14 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -840,32 +850,32 @@
       <c r="H4" s="7" t="n"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Worker 3</t>
-        </is>
-      </c>
-      <c r="L4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">מבחנים </t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>b.c</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>f</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>a</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>c</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -882,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -900,49 +910,29 @@
       <c r="H5" s="7" t="n"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Worker 4</t>
+          <t>יניב שטיינר</t>
+        </is>
+      </c>
+      <c r="L5" s="25" t="inlineStr">
+        <is>
+          <t>חתונה</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>a</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
         </is>
       </c>
       <c r="T5" t="n">
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -960,45 +950,55 @@
       <c r="H6" s="5" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Worker 7</t>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="L6" s="25" t="inlineStr">
+        <is>
+          <t>חתונה ברביעי</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>a.c</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
         </is>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="inlineStr">
         <is>
-          <t>עמדה אחורית</t>
+          <t>עמדה 2</t>
         </is>
       </c>
       <c r="B7" s="20" t="n"/>
@@ -1010,7 +1010,17 @@
       <c r="H7" s="21" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Worker 6</t>
+          <t>שבת</t>
+        </is>
+      </c>
+      <c r="L7" s="25" t="inlineStr">
+        <is>
+          <t>עד 4 משמרות לבינתיים 🫡</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1020,34 +1030,34 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>b.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="T7" t="n">
         <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1065,29 +1075,19 @@
       <c r="H8" s="7" t="n"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Worker 5</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
+          <t>עמית בלסן</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>a.c</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>a.b.c</t>
@@ -1095,19 +1095,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>c</t>
         </is>
       </c>
       <c r="T8" t="n">
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1123,53 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="J9" s="24" t="inlineStr">
-        <is>
-          <t>תגבור</t>
-        </is>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="L9" s="25" t="inlineStr">
+        <is>
+          <t>חינה בשלישי בערב. 
+אם אפשר בלי : (b)-(b) בשישי שבת. 
+ומזל טוב לשטיינר</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1142,6 +1185,11 @@
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="5" t="n"/>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>תגבור</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="inlineStr">
